--- a/Sprint 3 Burndown Chart.xlsx
+++ b/Sprint 3 Burndown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Story Points</t>
   </si>
@@ -33,6 +33,24 @@
   </si>
   <si>
     <t>Ideal Tracking (Days)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Blake: Completed user story 26</t>
+  </si>
+  <si>
+    <t>Blake: Completed task 1 of story 10</t>
+  </si>
+  <si>
+    <t>Blake: Completed task 2 of story 10</t>
+  </si>
+  <si>
+    <t>Ashleigh: Completed task 3 and 4 of additional tasks</t>
+  </si>
+  <si>
+    <t>Alex: Completed task 1 and 2 of additional tasks</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30:C45"/>
+  <dimension ref="A30:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,9 +1683,10 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1696,11 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1689,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1700,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1710,8 +1732,11 @@
       <c r="C33">
         <v>11</v>
       </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1722,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1733,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1743,8 +1768,11 @@
       <c r="C36">
         <v>10</v>
       </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1754,8 +1782,11 @@
       <c r="C37">
         <v>8</v>
       </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1765,8 +1796,11 @@
       <c r="C38">
         <v>5</v>
       </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1777,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1788,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1799,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -1810,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -1820,8 +1854,11 @@
       <c r="C43">
         <v>4</v>
       </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -1832,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
